--- a/reports/tempo_anotacao/tempos_anotacao.xlsx
+++ b/reports/tempo_anotacao/tempos_anotacao.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Arquivos Incomuns\Projeto Final\semiauto-video-annotation\reports\tempo_anotacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E87CA21-8DC8-4B70-AFC5-2592DD0F7B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED2879B-0ED5-4766-AD3C-CB5D8FDA5920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total - semiauto" sheetId="4" r:id="rId1"/>
-    <sheet name="Total - petrobras" sheetId="5" r:id="rId2"/>
-    <sheet name="Rede 1" sheetId="1" r:id="rId3"/>
-    <sheet name="Rede 2" sheetId="2" r:id="rId4"/>
-    <sheet name="Rede 3" sheetId="3" r:id="rId5"/>
-    <sheet name="Felipe" sheetId="6" r:id="rId6"/>
-    <sheet name="José Gabriel" sheetId="9" r:id="rId7"/>
-    <sheet name="Karen" sheetId="7" r:id="rId8"/>
-    <sheet name="Models" sheetId="8" r:id="rId9"/>
+    <sheet name="Models" sheetId="8" r:id="rId2"/>
+    <sheet name="Total - petrobras" sheetId="5" r:id="rId3"/>
+    <sheet name="Rede 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Rede 2" sheetId="2" r:id="rId5"/>
+    <sheet name="Rede 3" sheetId="3" r:id="rId6"/>
+    <sheet name="Felipe" sheetId="6" r:id="rId7"/>
+    <sheet name="José Gabriel" sheetId="9" r:id="rId8"/>
+    <sheet name="Karen" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="5" hidden="1">Felipe!$A$2:$B$14</definedName>
+    <definedName name="DadosExternos_1" localSheetId="6" hidden="1">Felipe!$A$2:$B$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="81">
   <si>
     <t>It</t>
   </si>
@@ -280,6 +280,24 @@
   </si>
   <si>
     <t>Dataset size tot</t>
+  </si>
+  <si>
+    <t>Weighted annotation speed</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
@@ -289,7 +307,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -424,9 +442,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -436,8 +451,11 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,6 +472,21 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -468,12 +501,276 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
@@ -486,286 +783,7 @@
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
@@ -807,12 +825,12 @@
   <autoFilter ref="A1:E9" xr:uid="{C52C9E56-66E3-4B76-9C73-DD5A36BFADA6}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{24063401-CEDB-44F1-95F1-A5796650D6D5}" name="Video" totalsRowLabel="Média"/>
-    <tableColumn id="2" xr3:uid="{29330AAE-BD5F-429D-B4BD-A268A571AE0B}" name="Tempo video (min)" totalsRowFunction="average" dataDxfId="106" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{B4D8FC5C-C9B8-40B6-988C-4B6E68E351E9}" name="Tempo anotacao (min)" totalsRowFunction="average" dataDxfId="105" totalsRowDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{450EB327-6898-42E1-9F9C-C07045BD9757}" name="Veloc anotacao media (min/min)" totalsRowFunction="average" dataDxfId="104" totalsRowDxfId="6">
+    <tableColumn id="2" xr3:uid="{29330AAE-BD5F-429D-B4BD-A268A571AE0B}" name="Tempo video (min)" totalsRowFunction="average" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{B4D8FC5C-C9B8-40B6-988C-4B6E68E351E9}" name="Tempo anotacao (min)" totalsRowFunction="average" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{450EB327-6898-42E1-9F9C-C07045BD9757}" name="Veloc anotacao media (min/min)" totalsRowFunction="average" dataDxfId="102" totalsRowDxfId="101">
       <calculatedColumnFormula>B2/C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BE5345D8-4EE6-4D69-9467-18A2DB2E2B18}" name="Veloc anotacao media (frames/min)" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="5">
+    <tableColumn id="5" xr3:uid="{BE5345D8-4EE6-4D69-9467-18A2DB2E2B18}" name="Veloc anotacao media (frames/min)" totalsRowFunction="average" dataDxfId="100" totalsRowDxfId="99">
       <calculatedColumnFormula>Tabela3[[#This Row],[Veloc anotacao media (min/min)]]*$G$1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -825,10 +843,10 @@
   <autoFilter ref="A2:D19" xr:uid="{95CEC84B-E252-493B-858E-9DE9C490938E}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1E1ED506-1A68-4AE8-BF85-4326B710E75D}" name="iteration" totalsRowLabel="."/>
-    <tableColumn id="2" xr3:uid="{B6964C40-D3E8-47A9-BAE9-4A6388A6B9EE}" name="manual" totalsRowFunction="custom" dataDxfId="103" totalsRowDxfId="102">
+    <tableColumn id="2" xr3:uid="{B6964C40-D3E8-47A9-BAE9-4A6388A6B9EE}" name="manual" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="97">
       <totalsRowFormula>SUM(Tabela1[manual])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{24AE9389-4EF9-42F2-B77C-64A372A5AEDB}" name="tempo de anotação (m)" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="100">
+    <tableColumn id="4" xr3:uid="{24AE9389-4EF9-42F2-B77C-64A372A5AEDB}" name="tempo de anotação (m)" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="95">
       <totalsRowFormula>SUM(Tabela1[tempo de anotação (m)])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{B1110663-EC68-4B9B-8481-DD73C225AFAA}" name="Coluna1" totalsRowFunction="custom">
@@ -844,22 +862,22 @@
   <autoFilter ref="B2:K5" xr:uid="{71EB153F-8004-4046-912E-ECBAE4E26523}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{CA396343-4F25-4CB4-A5A1-A2CA9089CE25}" name="it" totalsRowLabel="."/>
-    <tableColumn id="2" xr3:uid="{B6FEF5E0-8C17-4FFB-8D39-30AB1F58E550}" name="manual" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="98">
+    <tableColumn id="2" xr3:uid="{B6FEF5E0-8C17-4FFB-8D39-30AB1F58E550}" name="manual" totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="93">
       <totalsRowFormula>SUM(Tabela19[manual])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CD776EA8-6487-4588-BE43-4D7A4A464627}" name="Coluna1" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{08C9A2DC-5C58-421B-9C81-D52256DDD954}" name="Coluna2" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="8" xr3:uid="{D757FCB4-6A88-4065-86D6-336627EABF89}" name="Coluna3" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="9" xr3:uid="{65AF9171-C77F-4507-A84C-FB2F313544A1}" name="Coluna4" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="10" xr3:uid="{F70FECCD-965A-4E6A-B867-F7A614F6AB38}" name="Coluna5" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{6817ADE7-6AF0-452E-B69F-671E9D44679B}" name="tempo de anotação (m)" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="87">
+    <tableColumn id="7" xr3:uid="{CD776EA8-6487-4588-BE43-4D7A4A464627}" name="Coluna1" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{08C9A2DC-5C58-421B-9C81-D52256DDD954}" name="Coluna2" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="8" xr3:uid="{D757FCB4-6A88-4065-86D6-336627EABF89}" name="Coluna3" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="9" xr3:uid="{65AF9171-C77F-4507-A84C-FB2F313544A1}" name="Coluna4" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="10" xr3:uid="{F70FECCD-965A-4E6A-B867-F7A614F6AB38}" name="Coluna5" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{6817ADE7-6AF0-452E-B69F-671E9D44679B}" name="tempo de anotação (m)" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="82">
       <totalsRowFormula>SUM(Tabela19[tempo de anotação (m)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AAF7CCA6-CB86-458E-9058-9431E5E47286}" name="img/min" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="85">
+    <tableColumn id="5" xr3:uid="{AAF7CCA6-CB86-458E-9058-9431E5E47286}" name="img/min" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="80">
       <calculatedColumnFormula>Tabela19[[#This Row],[manual]]/Tabela19[[#This Row],[tempo de anotação (m)]]</calculatedColumnFormula>
       <totalsRowFormula>MEDIAN(Tabela19[img/min])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7FD4F664-6EA6-4835-919B-A7B1DC9479E2}" name="Coluna6" totalsRowFunction="custom" dataDxfId="84">
+    <tableColumn id="6" xr3:uid="{7FD4F664-6EA6-4835-919B-A7B1DC9479E2}" name="Coluna6" totalsRowFunction="custom" dataDxfId="79">
       <totalsRowFormula>_xlfn.STDEV.S(Tabela19[[#Data],[#Totals],[img/min]])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -872,22 +890,22 @@
   <autoFilter ref="B7:K11" xr:uid="{60109788-B135-459F-B83D-588D0B406C9B}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{BBAB0019-906E-4184-A7D8-4617CE339288}" name="iteration" totalsRowLabel="."/>
-    <tableColumn id="2" xr3:uid="{6885BE3C-CD60-443B-BFCE-0F8FA4B5B050}" name="manual" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="82">
+    <tableColumn id="2" xr3:uid="{6885BE3C-CD60-443B-BFCE-0F8FA4B5B050}" name="manual" totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="77">
       <totalsRowFormula>SUM(Tabela134753[manual])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{8469E117-8536-4E73-83E8-450CFADE19F0}" name="Coluna1" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{6B85D22E-D0A0-4331-BF87-1256D3B36D80}" name="Coluna2" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{F984EAB2-A890-45CD-8513-1038839C8447}" name="Coluna3" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="13" xr3:uid="{D7CAA98B-8496-4EFF-AA92-0AD62148DC9A}" name="Coluna4" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{1D28B27F-AC4F-4683-B016-C25C44CA3A13}" name="Coluna5" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{AF590393-1A89-4E7B-B255-2578B3826AD0}" name="tempo de anotação (m)" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="71">
+    <tableColumn id="12" xr3:uid="{8469E117-8536-4E73-83E8-450CFADE19F0}" name="Coluna1" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{6B85D22E-D0A0-4331-BF87-1256D3B36D80}" name="Coluna2" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{F984EAB2-A890-45CD-8513-1038839C8447}" name="Coluna3" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="13" xr3:uid="{D7CAA98B-8496-4EFF-AA92-0AD62148DC9A}" name="Coluna4" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{1D28B27F-AC4F-4683-B016-C25C44CA3A13}" name="Coluna5" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{AF590393-1A89-4E7B-B255-2578B3826AD0}" name="tempo de anotação (m)" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="66">
       <totalsRowFormula>SUM(Tabela134753[tempo de anotação (m)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{19A2AE5B-00B8-45CA-A66C-817393E5C4B6}" name="img/min" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="69">
+    <tableColumn id="5" xr3:uid="{19A2AE5B-00B8-45CA-A66C-817393E5C4B6}" name="img/min" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="64">
       <calculatedColumnFormula>Tabela134753[[#This Row],[manual]]/Tabela134753[[#This Row],[tempo de anotação (m)]]</calculatedColumnFormula>
       <totalsRowFormula>MEDIAN(Tabela134753[img/min])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{017C5C21-ADF9-4BD4-8EA0-0D6DFAD0147E}" name="Coluna6" totalsRowFunction="custom" dataDxfId="68">
+    <tableColumn id="6" xr3:uid="{017C5C21-ADF9-4BD4-8EA0-0D6DFAD0147E}" name="Coluna6" totalsRowFunction="custom" dataDxfId="63">
       <totalsRowFormula>_xlfn.STDEV.S(Tabela134753[img/min])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -900,22 +918,22 @@
   <autoFilter ref="B13:K19" xr:uid="{DD970305-E2DB-44FF-8DBD-7EF267A0648D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{C8EE00A1-EAD4-443D-B5E8-9138184837ED}" name="iteration" totalsRowLabel="."/>
-    <tableColumn id="2" xr3:uid="{8FBD5F81-411A-4CB1-9411-9463A37172AD}" name="imagens manuais" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="66">
+    <tableColumn id="2" xr3:uid="{8FBD5F81-411A-4CB1-9411-9463A37172AD}" name="imagens manuais" totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="61">
       <totalsRowFormula>SUM(Tabela134[imagens manuais])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{18F1EF93-CE88-4358-B9DA-970073705497}" name="Coluna1" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{2ACC9E1B-AA54-4EF5-87C1-C452746A4615}" name="Coluna2" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="8" xr3:uid="{186E1B62-C293-4C99-93CA-ED9588ACC971}" name="Coluna3" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{73A24166-3EFD-4B03-83D2-FDAF2BCDB0D2}" name="Coluna4" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="10" xr3:uid="{144B9441-7110-4AA3-ADC2-8A23243A543A}" name="Coluna5" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{65F1079D-6787-4F21-95A6-3178709870D0}" name="tempo de anotação (m)" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="55">
+    <tableColumn id="7" xr3:uid="{18F1EF93-CE88-4358-B9DA-970073705497}" name="Coluna1" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{2ACC9E1B-AA54-4EF5-87C1-C452746A4615}" name="Coluna2" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{186E1B62-C293-4C99-93CA-ED9588ACC971}" name="Coluna3" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{73A24166-3EFD-4B03-83D2-FDAF2BCDB0D2}" name="Coluna4" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{144B9441-7110-4AA3-ADC2-8A23243A543A}" name="Coluna5" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{65F1079D-6787-4F21-95A6-3178709870D0}" name="tempo de anotação (m)" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="50">
       <totalsRowFormula>SUM(Tabela134[tempo de anotação (m)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C54F1C9F-9FEE-4FD5-B08E-8C13310501C5}" name="img/min" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="5" xr3:uid="{C54F1C9F-9FEE-4FD5-B08E-8C13310501C5}" name="img/min" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula>Tabela134[[#This Row],[imagens manuais]]/Tabela134[[#This Row],[tempo de anotação (m)]]</calculatedColumnFormula>
       <totalsRowFormula>MEDIAN(Tabela134[img/min])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1DC31D7F-8C5D-4B4E-B936-0CA8498D16F5}" name="Coluna6" totalsRowFunction="custom" dataDxfId="52">
+    <tableColumn id="6" xr3:uid="{1DC31D7F-8C5D-4B4E-B936-0CA8498D16F5}" name="Coluna6" totalsRowFunction="custom" dataDxfId="47">
       <totalsRowFormula>_xlfn.STDEV.S(Tabela134[img/min])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -928,22 +946,22 @@
   <autoFilter ref="B21:K26" xr:uid="{20E1078E-9096-4B13-8A96-95B6651F894C}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{3BFD7ACB-485F-4FCC-90B9-2E3591193B7E}" name="iteration" totalsRowLabel="."/>
-    <tableColumn id="2" xr3:uid="{A288C998-EA8F-4C28-85AD-A8751E6CF5C6}" name="imagens manuais" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="2" xr3:uid="{A288C998-EA8F-4C28-85AD-A8751E6CF5C6}" name="imagens manuais" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="45">
       <totalsRowFormula>SUM(Tabela1346[imagens manuais])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{54BC1442-F5CC-4E65-9F0B-0185CD52480E}" name="Coluna1" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{F1876EE3-84C3-4193-B409-F982C2A70009}" name="Coluna2" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{F0CB262D-B105-4BF3-832F-D2F6D8083E40}" name="Coluna3" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{7EAC52D8-1C9B-46EB-95C2-C01AF5A90377}" name="Coluna4" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{DE10610D-88DA-420C-8E7B-94C984F42201}" name="Coluna5" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{F09E7A04-1A0F-40AB-99E6-2D3636399CE7}" name="tempo de anotação (m)" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="7" xr3:uid="{54BC1442-F5CC-4E65-9F0B-0185CD52480E}" name="Coluna1" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{F1876EE3-84C3-4193-B409-F982C2A70009}" name="Coluna2" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{F0CB262D-B105-4BF3-832F-D2F6D8083E40}" name="Coluna3" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{7EAC52D8-1C9B-46EB-95C2-C01AF5A90377}" name="Coluna4" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{DE10610D-88DA-420C-8E7B-94C984F42201}" name="Coluna5" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{F09E7A04-1A0F-40AB-99E6-2D3636399CE7}" name="tempo de anotação (m)" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
       <totalsRowFormula>SUM(Tabela1346[[#Headers],[#Data],[tempo de anotação (m)]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{73B3CD86-CF29-4F49-8A09-304A39DC86BF}" name="img/min" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="37">
+    <tableColumn id="5" xr3:uid="{73B3CD86-CF29-4F49-8A09-304A39DC86BF}" name="img/min" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>Tabela1346[[#This Row],[imagens manuais]]/Tabela1346[[#This Row],[tempo de anotação (m)]]</calculatedColumnFormula>
       <totalsRowFormula>MEDIAN(Tabela1346[[#Headers],[#Data],[img/min]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A8A74C96-89BC-40AD-A320-584F8AF324D0}" name="Coluna6" totalsRowFunction="custom" dataDxfId="36">
+    <tableColumn id="6" xr3:uid="{A8A74C96-89BC-40AD-A320-584F8AF324D0}" name="Coluna6" totalsRowFunction="custom" dataDxfId="31">
       <totalsRowFormula>_xlfn.STDEV.S(Tabela1346[img/min])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -956,22 +974,22 @@
   <autoFilter ref="B28:K32" xr:uid="{BC43D5E2-5097-460E-BA77-B393A92CE86F}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{FFB8DE13-150A-4BD8-9538-8FD6DD571B6D}" name="iteration" totalsRowLabel="."/>
-    <tableColumn id="2" xr3:uid="{56D8DC3E-138A-4D3F-B61E-F8876CDFF91A}" name="imagens manuais" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="2" xr3:uid="{56D8DC3E-138A-4D3F-B61E-F8876CDFF91A}" name="imagens manuais" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="29">
       <totalsRowFormula>SUM(Tabela1347[imagens manuais])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3A2B5B25-F952-43E1-B7ED-EC51A2EE002A}" name="Coluna1" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{3777FF3A-4FD0-4F3C-BE3E-E05A4344F632}" name="Coluna2" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{3B7869F3-5144-42C8-8438-734065FDC89A}" name="Coluna3" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{18D89CCB-F233-4BA2-8F04-8486EC9DDF19}" name="Coluna4" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{B3EE4710-5D67-4A70-8B28-67AF678DE07C}" name="Coluna5" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{F1CFD973-0C6A-4718-A567-3820C6C59CF4}" name="tempo de anotação (m)" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="7" xr3:uid="{3A2B5B25-F952-43E1-B7ED-EC51A2EE002A}" name="Coluna1" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{3777FF3A-4FD0-4F3C-BE3E-E05A4344F632}" name="Coluna2" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{3B7869F3-5144-42C8-8438-734065FDC89A}" name="Coluna3" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{18D89CCB-F233-4BA2-8F04-8486EC9DDF19}" name="Coluna4" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{B3EE4710-5D67-4A70-8B28-67AF678DE07C}" name="Coluna5" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{F1CFD973-0C6A-4718-A567-3820C6C59CF4}" name="tempo de anotação (m)" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <totalsRowFormula>SUM(Tabela1347[[#Headers],[#Data],[tempo de anotação (m)]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{038ED53C-E4E9-4573-BED5-EA434F363958}" name="img/min" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="5" xr3:uid="{038ED53C-E4E9-4573-BED5-EA434F363958}" name="img/min" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>Tabela1347[[#This Row],[imagens manuais]]/Tabela1347[[#This Row],[tempo de anotação (m)]]</calculatedColumnFormula>
       <totalsRowFormula>MEDIAN(Tabela1347[img/min])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9BC8283C-E6B1-4D62-9E65-4C69B7F15E9B}" name="Coluna6" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="6" xr3:uid="{9BC8283C-E6B1-4D62-9E65-4C69B7F15E9B}" name="Coluna6" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>_xlfn.STDEV.S(Tabela1347[img/min])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -980,20 +998,20 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{53BFB087-5E9D-437F-8BE7-B8F308BD12E5}" name="felipe_data6" displayName="felipe_data6" ref="A2:D15" tableType="queryTable" totalsRowCount="1" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{53BFB087-5E9D-437F-8BE7-B8F308BD12E5}" name="felipe_data6" displayName="felipe_data6" ref="A2:D15" tableType="queryTable" totalsRowCount="1" headerRowDxfId="14">
   <autoFilter ref="A2:D14" xr:uid="{6909644C-4248-4BA8-B197-53C403AB5126}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CD71D8B8-BCC9-4383-AABC-80CC9CBBFD92}" uniqueName="1" name="Frames" totalsRowFunction="custom" queryTableFieldId="1" dataDxfId="19" totalsRowDxfId="4">
+    <tableColumn id="1" xr3:uid="{CD71D8B8-BCC9-4383-AABC-80CC9CBBFD92}" uniqueName="1" name="Frames" totalsRowFunction="custom" queryTableFieldId="1" dataDxfId="13" totalsRowDxfId="12">
       <totalsRowFormula>AVERAGE(felipe_data6[Frames])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A8726139-C0A8-45B8-95E7-34BB560E50A0}" uniqueName="2" name="Tempo de anotação (min)" totalsRowFunction="custom" queryTableFieldId="2" dataDxfId="18" totalsRowDxfId="3">
+    <tableColumn id="2" xr3:uid="{A8726139-C0A8-45B8-95E7-34BB560E50A0}" uniqueName="2" name="Tempo de anotação (min)" totalsRowFunction="custom" queryTableFieldId="2" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>AVERAGE(felipe_data6[Tempo de anotação (min)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C5C14F24-4ACC-417C-B32A-3D8EAD6BCA9C}" uniqueName="3" name="Tempo de vídeo (horas)" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="17" totalsRowDxfId="2">
+    <tableColumn id="3" xr3:uid="{C5C14F24-4ACC-417C-B32A-3D8EAD6BCA9C}" uniqueName="3" name="Tempo de vídeo (horas)" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>felipe_data6[[#This Row],[Frames]]/$H$2/60</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(felipe_data6[Tempo de vídeo (horas)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{80D8F9E3-21BE-444A-B19F-281FB0DE853F}" uniqueName="4" name="Annotation rate (frame/min)" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="16" totalsRowDxfId="1">
+    <tableColumn id="4" xr3:uid="{80D8F9E3-21BE-444A-B19F-281FB0DE853F}" uniqueName="4" name="Annotation rate (frame/min)" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>felipe_data6[[#This Row],[Frames]]/felipe_data6[[#This Row],[Tempo de anotação (min)]]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(felipe_data6[Annotation rate (frame/min)])</totalsRowFormula>
     </tableColumn>
@@ -1003,16 +1021,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F45FC3BD-F6EB-4F5F-81E8-1EDA4379714B}" name="Tabela6" displayName="Tabela6" ref="B2:D8" totalsRowCount="1" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F45FC3BD-F6EB-4F5F-81E8-1EDA4379714B}" name="Tabela6" displayName="Tabela6" ref="B2:D8" totalsRowCount="1" headerRowDxfId="5">
   <autoFilter ref="B2:D7" xr:uid="{B11E3EBC-17D4-43EF-9A55-E3DA93BE673D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EACAB079-773E-48DA-9400-B9088B89744D}" name="Frames" totalsRowFunction="custom" totalsRowDxfId="11">
+    <tableColumn id="1" xr3:uid="{EACAB079-773E-48DA-9400-B9088B89744D}" name="Frames" totalsRowFunction="custom" totalsRowDxfId="4">
       <totalsRowFormula>AVERAGE(Tabela6[Frames])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B0FD8FCA-4C98-4A2F-9EA4-51626ECF6255}" name="Tempo de anotação (min)" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="10">
+    <tableColumn id="2" xr3:uid="{B0FD8FCA-4C98-4A2F-9EA4-51626ECF6255}" name="Tempo de anotação (min)" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>AVERAGE(Tabela6[Tempo de anotação (min)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5C6DB4B2-644D-42D7-9D1B-073BF4DE759B}" name="Annotation rate (frame/min)" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="0">
+    <tableColumn id="4" xr3:uid="{5C6DB4B2-644D-42D7-9D1B-073BF4DE759B}" name="Annotation rate (frame/min)" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabela6[[#This Row],[Frames]]/Tabela6[[#This Row],[Tempo de anotação (min)]]</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Tabela6[Annotation rate (frame/min)])</totalsRowFormula>
     </tableColumn>
@@ -1286,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED0BAA0-0C9D-4AAB-AC1D-4C9A6C7A4A73}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1367,7 +1385,7 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="25">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -1390,7 +1408,7 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="25"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
@@ -1409,9 +1427,12 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="8"/>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
@@ -1430,9 +1451,18 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="8"/>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
@@ -1451,9 +1481,19 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="8"/>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.95722164581056968</v>
+      </c>
+      <c r="K7" s="9">
+        <v>4.3115223020556454E-2</v>
+      </c>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
@@ -1472,13 +1512,23 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="8"/>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8">
+        <f>Models!I13</f>
+        <v>21174.357787549179</v>
+      </c>
+      <c r="K8">
+        <v>42.667692489338215</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <f>AVERAGE(D2:D8)</f>
         <v>61.612222367325998</v>
       </c>
@@ -1486,6 +1536,13 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="8"/>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9">
+        <f>J7*J8+K7*K8</f>
+        <v>20270.393237457127</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1558,11 +1615,388 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E824A6B-6050-4DA8-A168-E5154C8558B8}">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.7265625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6">
+        <v>1635</v>
+      </c>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="30">
+        <f>31+6/60</f>
+        <v>31.1</v>
+      </c>
+      <c r="H2" s="30">
+        <f>3+19/60</f>
+        <v>3.3166666666666664</v>
+      </c>
+      <c r="I2" s="30">
+        <f>G2+H2</f>
+        <v>34.416666666666671</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6">
+        <v>152</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="30">
+        <f>23+49/60</f>
+        <v>23.816666666666666</v>
+      </c>
+      <c r="H3" s="30">
+        <f>2+12/60</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I3" s="30">
+        <f t="shared" ref="I3:I11" si="0">G3+H3</f>
+        <v>26.016666666666666</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="30">
+        <f>24+18/60</f>
+        <v>24.3</v>
+      </c>
+      <c r="H4" s="30">
+        <f>3+12/60</f>
+        <v>3.2</v>
+      </c>
+      <c r="I4" s="30">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6">
+        <f>N1*Q1</f>
+        <v>418560</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="30">
+        <f>26+51/60</f>
+        <v>26.85</v>
+      </c>
+      <c r="H5" s="30">
+        <f>2+13/60</f>
+        <v>2.2166666666666668</v>
+      </c>
+      <c r="I5" s="30">
+        <f t="shared" si="0"/>
+        <v>29.06666666666667</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6">
+        <f>N2*Q1</f>
+        <v>38912</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="30">
+        <f>13+36/60</f>
+        <v>13.6</v>
+      </c>
+      <c r="H6" s="30">
+        <v>1</v>
+      </c>
+      <c r="I6" s="30">
+        <f t="shared" si="0"/>
+        <v>14.6</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6">
+        <f>N4+N5</f>
+        <v>457472</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="30">
+        <f>14+45/60</f>
+        <v>14.75</v>
+      </c>
+      <c r="H7" s="30">
+        <f>1+13/60</f>
+        <v>1.2166666666666668</v>
+      </c>
+      <c r="I7" s="30">
+        <f t="shared" si="0"/>
+        <v>15.966666666666667</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="30">
+        <v>12</v>
+      </c>
+      <c r="H8" s="30">
+        <f>1+16/60</f>
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="I8" s="30">
+        <f t="shared" si="0"/>
+        <v>13.266666666666666</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="30">
+        <f>12+2/60</f>
+        <v>12.033333333333333</v>
+      </c>
+      <c r="H9" s="30">
+        <f>1+16/60</f>
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="I9" s="30">
+        <f t="shared" si="0"/>
+        <v>13.3</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" s="30">
+        <f>20+36/60</f>
+        <v>20.6</v>
+      </c>
+      <c r="H10" s="30">
+        <f>2+10/60</f>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="I10" s="30">
+        <f t="shared" si="0"/>
+        <v>22.766666666666669</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="30">
+        <f>17+25/60</f>
+        <v>17.416666666666668</v>
+      </c>
+      <c r="H11" s="30">
+        <f>1+44/60</f>
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="I11" s="30">
+        <f t="shared" si="0"/>
+        <v>19.150000000000002</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G12" s="30">
+        <f>AVERAGE(G2:G11)</f>
+        <v>19.646666666666665</v>
+      </c>
+      <c r="H12" s="30">
+        <f>AVERAGE(H2:H11)</f>
+        <v>1.9583333333333335</v>
+      </c>
+      <c r="I12" s="30">
+        <f>AVERAGE(I2:I11)</f>
+        <v>21.605</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="31">
+        <f>N1*$Q$1/G12</f>
+        <v>21304.377332880897</v>
+      </c>
+      <c r="H13" s="31">
+        <f>N2*$Q$1/H12</f>
+        <v>19869.957446808508</v>
+      </c>
+      <c r="I13" s="31">
+        <f>(N1+N2)*$Q$1/I12</f>
+        <v>21174.357787549179</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="12:17" x14ac:dyDescent="0.35">
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13DF91D-4FDB-41C3-A8DF-39D44F9BBAC4}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1865,7 +2299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F13"/>
   <sheetViews>
@@ -2065,7 +2499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77307B9-8C69-45D4-A7BD-078D9101654B}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -2331,7 +2765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8FC809-6DAF-436E-AB85-CCFE227EDE6E}">
   <dimension ref="A1:K33"/>
   <sheetViews>
@@ -3163,7 +3597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D7444C-F20D-479F-BE2D-15CEA2E3F1D9}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -3184,22 +3618,22 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="26">
         <v>30</v>
       </c>
     </row>
@@ -3408,7 +3842,7 @@
         <f>AVERAGE(felipe_data6[Tempo de vídeo (horas)])</f>
         <v>2.5608333333333335</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="27">
         <f>AVERAGE(felipe_data6[Annotation rate (frame/min)])</f>
         <v>120.32944444444443</v>
       </c>
@@ -3421,7 +3855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41F0F0C-B08D-4D16-B8A3-2AACAB83612D}">
   <dimension ref="A2:C2"/>
   <sheetViews>
@@ -3438,7 +3872,7 @@
       <c r="B2">
         <v>60</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <f>A2/B2</f>
         <v>16.666666666666668</v>
       </c>
@@ -3448,7 +3882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7724D772-E735-4F00-BF15-589E28FD4BFE}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -3473,19 +3907,19 @@
       <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="26">
         <v>30</v>
       </c>
     </row>
@@ -3573,7 +4007,7 @@
         <f>AVERAGE(Tabela6[Tempo de anotação (min)])</f>
         <v>83.6</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <f>AVERAGE(Tabela6[Annotation rate (frame/min)])</f>
         <v>14.730128968253968</v>
       </c>
@@ -3583,383 +4017,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E824A6B-6050-4DA8-A168-E5154C8558B8}">
-  <dimension ref="A1:Q17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.7265625" style="31"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6">
-        <v>1635</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" s="6">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="31">
-        <f>31+6/60</f>
-        <v>31.1</v>
-      </c>
-      <c r="H2" s="31">
-        <f>3+19/60</f>
-        <v>3.3166666666666664</v>
-      </c>
-      <c r="I2" s="31">
-        <f>G2+H2</f>
-        <v>34.416666666666671</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6">
-        <v>152</v>
-      </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="31">
-        <f>23+49/60</f>
-        <v>23.816666666666666</v>
-      </c>
-      <c r="H3" s="31">
-        <f>2+12/60</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I3" s="31">
-        <f t="shared" ref="I3:I11" si="0">G3+H3</f>
-        <v>26.016666666666666</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="31">
-        <f>24+18/60</f>
-        <v>24.3</v>
-      </c>
-      <c r="H4" s="31">
-        <f>3+12/60</f>
-        <v>3.2</v>
-      </c>
-      <c r="I4" s="31">
-        <f t="shared" si="0"/>
-        <v>27.5</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6">
-        <f>N1*Q1</f>
-        <v>418560</v>
-      </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="31">
-        <f>26+51/60</f>
-        <v>26.85</v>
-      </c>
-      <c r="H5" s="31">
-        <f>2+13/60</f>
-        <v>2.2166666666666668</v>
-      </c>
-      <c r="I5" s="31">
-        <f t="shared" si="0"/>
-        <v>29.06666666666667</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6">
-        <f>N2*Q1</f>
-        <v>38912</v>
-      </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="31">
-        <f>13+36/60</f>
-        <v>13.6</v>
-      </c>
-      <c r="H6" s="31">
-        <v>1</v>
-      </c>
-      <c r="I6" s="31">
-        <f t="shared" si="0"/>
-        <v>14.6</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6">
-        <f>N4+N5</f>
-        <v>457472</v>
-      </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7" s="31">
-        <f>14+45/60</f>
-        <v>14.75</v>
-      </c>
-      <c r="H7" s="31">
-        <f>1+13/60</f>
-        <v>1.2166666666666668</v>
-      </c>
-      <c r="I7" s="31">
-        <f t="shared" si="0"/>
-        <v>15.966666666666667</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8" s="31">
-        <v>12</v>
-      </c>
-      <c r="H8" s="31">
-        <f>1+16/60</f>
-        <v>1.2666666666666666</v>
-      </c>
-      <c r="I8" s="31">
-        <f t="shared" si="0"/>
-        <v>13.266666666666666</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9" s="31">
-        <f>12+2/60</f>
-        <v>12.033333333333333</v>
-      </c>
-      <c r="H9" s="31">
-        <f>1+16/60</f>
-        <v>1.2666666666666666</v>
-      </c>
-      <c r="I9" s="31">
-        <f t="shared" si="0"/>
-        <v>13.3</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10" s="31">
-        <f>20+36/60</f>
-        <v>20.6</v>
-      </c>
-      <c r="H10" s="31">
-        <f>2+10/60</f>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="I10" s="31">
-        <f t="shared" si="0"/>
-        <v>22.766666666666669</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11" s="31">
-        <f>17+25/60</f>
-        <v>17.416666666666668</v>
-      </c>
-      <c r="H11" s="31">
-        <f>1+44/60</f>
-        <v>1.7333333333333334</v>
-      </c>
-      <c r="I11" s="31">
-        <f t="shared" si="0"/>
-        <v>19.150000000000002</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G12" s="31">
-        <f>AVERAGE(G2:G11)</f>
-        <v>19.646666666666665</v>
-      </c>
-      <c r="H12" s="31">
-        <f>AVERAGE(H2:H11)</f>
-        <v>1.9583333333333335</v>
-      </c>
-      <c r="I12" s="31">
-        <f>AVERAGE(I2:I11)</f>
-        <v>21.605</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="32">
-        <f>N1*$Q$1/G12</f>
-        <v>21304.377332880897</v>
-      </c>
-      <c r="H13" s="32">
-        <f>N2*$Q$1/H12</f>
-        <v>19869.957446808508</v>
-      </c>
-      <c r="I13" s="32">
-        <f>(N1+N2)*$Q$1/I12</f>
-        <v>21174.357787549179</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="12:17" x14ac:dyDescent="0.35">
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
